--- a/outputs/sm_long_peroz_01.xlsx
+++ b/outputs/sm_long_peroz_01.xlsx
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.970835434467591</v>
+        <v>2.970849349325448</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1063846264992745</v>
+        <v>0.08950557895095464</v>
       </c>
     </row>
     <row r="3">
@@ -493,10 +493,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.424691363038102</v>
+        <v>1.424702969214414</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1310257498612268</v>
+        <v>0.1090502650638377</v>
       </c>
     </row>
     <row r="4">
@@ -514,10 +514,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-10.6195801839806</v>
+        <v>-10.61994539695423</v>
       </c>
       <c r="E4" t="n">
-        <v>102881.016822359</v>
+        <v>1.470164634068222</v>
       </c>
     </row>
     <row r="5">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.1259937659844934</v>
+        <v>-0.1260046050739118</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1179724904329121</v>
+        <v>0.1344381470101818</v>
       </c>
     </row>
     <row r="6">
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-14.80421460800611</v>
+        <v>-14.80460972813951</v>
       </c>
       <c r="E6" t="n">
-        <v>102880.9183036377</v>
+        <v>1.315114216108933</v>
       </c>
     </row>
     <row r="7">
@@ -577,10 +577,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-12.53312012582674</v>
+        <v>-12.53350457653077</v>
       </c>
       <c r="E7" t="n">
-        <v>102880.9877390414</v>
+        <v>1.324580400218214</v>
       </c>
     </row>
     <row r="8">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-2.712036837091488</v>
+        <v>-2.712052286943038</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2893575239338942</v>
+        <v>0.2771860721080288</v>
       </c>
     </row>
     <row r="9">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-3.337192781781952</v>
+        <v>-3.337206557517042</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1176439464374292</v>
+        <v>0.1003505593118783</v>
       </c>
     </row>
     <row r="10">
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.02657776796690501</v>
+        <v>0.02656933405131161</v>
       </c>
       <c r="E10" t="n">
-        <v>0.09976844902350669</v>
+        <v>0.1419662521993859</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.4268922778922338</v>
+        <v>0.4268891989681812</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0696107101076406</v>
+        <v>0.09857043298399197</v>
       </c>
     </row>
     <row r="12">
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-15.8574644976774</v>
+        <v>-15.85760690325885</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8982212722038325</v>
+        <v>1.344803778847871</v>
       </c>
     </row>
   </sheetData>
@@ -747,7 +747,7 @@
         <v>2.931320990254548</v>
       </c>
       <c r="E2" t="n">
-        <v>8.48039460078861</v>
+        <v>8.46723724712259</v>
       </c>
     </row>
     <row r="3">
@@ -768,7 +768,7 @@
         <v>1.299428962064548</v>
       </c>
       <c r="E3" t="n">
-        <v>13.32997992282164</v>
+        <v>13.28810105717659</v>
       </c>
     </row>
     <row r="4">
@@ -789,7 +789,7 @@
         <v>-10.74408674669937</v>
       </c>
       <c r="E4" t="n">
-        <v>7617384.001841591</v>
+        <v>7557475.294015563</v>
       </c>
     </row>
     <row r="5">
@@ -810,7 +810,7 @@
         <v>-0.2033365852493372</v>
       </c>
       <c r="E5" t="n">
-        <v>13.75998409878113</v>
+        <v>13.7487765626368</v>
       </c>
     </row>
     <row r="6">
@@ -831,7 +831,7 @@
         <v>-14.71560035072126</v>
       </c>
       <c r="E6" t="n">
-        <v>7617374.402500236</v>
+        <v>7557465.770168863</v>
       </c>
     </row>
     <row r="7">
@@ -852,7 +852,7 @@
         <v>-12.49804630239512</v>
       </c>
       <c r="E7" t="n">
-        <v>7617380.687615678</v>
+        <v>7557472.005853559</v>
       </c>
     </row>
     <row r="8">
@@ -873,7 +873,7 @@
         <v>-2.554073351780811</v>
       </c>
       <c r="E8" t="n">
-        <v>37.82017807358589</v>
+        <v>37.71806458592304</v>
       </c>
     </row>
     <row r="9">
@@ -894,7 +894,7 @@
         <v>-3.297899960528407</v>
       </c>
       <c r="E9" t="n">
-        <v>7.534960107822713</v>
+        <v>7.516465494195947</v>
       </c>
     </row>
     <row r="10">
@@ -915,7 +915,7 @@
         <v>0.1393472481477351</v>
       </c>
       <c r="E10" t="n">
-        <v>22.53586099930573</v>
+        <v>22.5353427534335</v>
       </c>
     </row>
     <row r="11">
@@ -936,7 +936,7 @@
         <v>0.4909910002198818</v>
       </c>
       <c r="E11" t="n">
-        <v>11.95357213253596</v>
+        <v>11.95356783329998</v>
       </c>
     </row>
     <row r="12">
@@ -957,7 +957,7 @@
         <v>-14.60971545766375</v>
       </c>
       <c r="E12" t="n">
-        <v>235.5225559395294</v>
+        <v>235.4900828072975</v>
       </c>
     </row>
   </sheetData>
@@ -1044,34 +1044,34 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.66473940361668</v>
+        <v>-12.66573821720952</v>
       </c>
       <c r="D2" t="n">
-        <v>8.146958305461881</v>
+        <v>8.146139035670558</v>
       </c>
       <c r="E2" t="n">
-        <v>2.343364248664937e-07</v>
+        <v>2.348270923749311e-07</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8320276465545692</v>
+        <v>0.8321199181155896</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1973083101931459</v>
+        <v>0.1973295874255035</v>
       </c>
       <c r="H2" t="n">
-        <v>1.508491824399051</v>
+        <v>1.508519636743189</v>
       </c>
       <c r="I2" t="n">
-        <v>2.060433480659419e-12</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.70302629992197</v>
+        <v>1.702844608893767</v>
       </c>
       <c r="K2" t="n">
-        <v>0.004987768736685562</v>
+        <v>0.004992997616033638</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2720466464986435</v>
+        <v>0.2720222134764083</v>
       </c>
     </row>
     <row r="3">
@@ -1082,34 +1082,34 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.400671395209657</v>
+        <v>2.400736682908192</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.960003710534264</v>
+        <v>-6.959540101257435</v>
       </c>
       <c r="E3" t="n">
-        <v>2.388769356325196e-07</v>
+        <v>1.929895465812997e-07</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8395736628494409</v>
+        <v>0.8396666757436687</v>
       </c>
       <c r="G3" t="n">
-        <v>0.201579565892908</v>
+        <v>0.201601270250773</v>
       </c>
       <c r="H3" t="n">
-        <v>1.521375330969538</v>
+        <v>1.521402919460801</v>
       </c>
       <c r="I3" t="n">
-        <v>2.17518632071838e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.716145637300214</v>
+        <v>1.715962973195775</v>
       </c>
       <c r="K3" t="n">
-        <v>0.005045017557074562</v>
+        <v>0.005050289223184476</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2756295587971404</v>
+        <v>0.27560480902359</v>
       </c>
     </row>
     <row r="4">
@@ -1120,34 +1120,34 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2.673919896857656</v>
+        <v>2.673992145383112</v>
       </c>
       <c r="D4" t="n">
-        <v>9.14682918176093</v>
+        <v>9.145865519913034</v>
       </c>
       <c r="E4" t="n">
-        <v>-16.8731755673966</v>
+        <v>-16.87492620686211</v>
       </c>
       <c r="F4" t="n">
-        <v>0.928854299239192</v>
+        <v>0.9289569770164536</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2207993903584475</v>
+        <v>0.220823997186021</v>
       </c>
       <c r="H4" t="n">
-        <v>1.687325610062371</v>
+        <v>1.687354828047823</v>
       </c>
       <c r="I4" t="n">
-        <v>2.373485240846905e-12</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.905120336121912</v>
+        <v>1.904916545825383</v>
       </c>
       <c r="K4" t="n">
-        <v>0.005526825865025819</v>
+        <v>0.005532210140078092</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3049621026970002</v>
+        <v>0.3049339422467184</v>
       </c>
     </row>
     <row r="5">
@@ -1158,34 +1158,34 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>2.375249030828362</v>
+        <v>2.375314114615067</v>
       </c>
       <c r="D5" t="n">
-        <v>8.131695828463517</v>
+        <v>8.130879928372373</v>
       </c>
       <c r="E5" t="n">
-        <v>2.339086297943129e-07</v>
+        <v>2.409270098904655e-07</v>
       </c>
       <c r="F5" t="n">
-        <v>-14.18166155538109</v>
+        <v>-14.1832470048401</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1972552207409472</v>
+        <v>0.1972774578453027</v>
       </c>
       <c r="H5" t="n">
-        <v>1.505398437444868</v>
+        <v>1.505425854420149</v>
       </c>
       <c r="I5" t="n">
-        <v>2.322099152632864e-12</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.69650490680918</v>
+        <v>1.696324174437425</v>
       </c>
       <c r="K5" t="n">
-        <v>0.004937837102974234</v>
+        <v>0.004942805946151762</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2707516760442245</v>
+        <v>0.2707270292279961</v>
       </c>
     </row>
     <row r="6">
@@ -1196,34 +1196,34 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2.597724931661509</v>
+        <v>2.597795392279956</v>
       </c>
       <c r="D6" t="n">
-        <v>8.882134929336949</v>
+        <v>8.881232169274476</v>
       </c>
       <c r="E6" t="n">
-        <v>2.540474013044998e-07</v>
+        <v>1.93231068031904e-07</v>
       </c>
       <c r="F6" t="n">
-        <v>0.903320085282114</v>
+        <v>0.9034204071066338</v>
       </c>
       <c r="G6" t="n">
-        <v>-16.17001328022549</v>
+        <v>-16.17204736837243</v>
       </c>
       <c r="H6" t="n">
-        <v>1.639690191787925</v>
+        <v>1.639718827417777</v>
       </c>
       <c r="I6" t="n">
-        <v>2.323571803759272e-12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.84565541153906</v>
+        <v>1.845458799211993</v>
       </c>
       <c r="K6" t="n">
-        <v>0.005385224305203246</v>
+        <v>0.005391251623859593</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2962564572462633</v>
+        <v>0.2962293205576755</v>
       </c>
     </row>
     <row r="7">
@@ -1234,34 +1234,34 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>2.688268336003647</v>
+        <v>2.688341242597981</v>
       </c>
       <c r="D7" t="n">
-        <v>9.18550304664871</v>
+        <v>9.184585986022071</v>
       </c>
       <c r="E7" t="n">
-        <v>2.646151664191404e-07</v>
+        <v>2.773343210258343e-07</v>
       </c>
       <c r="F7" t="n">
-        <v>0.938451080755261</v>
+        <v>0.9385557518850616</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2236015479462984</v>
+        <v>0.2236246933280565</v>
       </c>
       <c r="H7" t="n">
-        <v>-15.26764178301486</v>
+        <v>-15.26883230790419</v>
       </c>
       <c r="I7" t="n">
-        <v>2.42468280184163e-12</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.918891648498982</v>
+        <v>1.918685473566168</v>
       </c>
       <c r="K7" t="n">
-        <v>0.005597954138475705</v>
+        <v>0.00560324720875517</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3074646448212725</v>
+        <v>0.3074353537537332</v>
       </c>
     </row>
     <row r="8">
@@ -1272,34 +1272,34 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>2.798355699210227</v>
+        <v>2.798431253278942</v>
       </c>
       <c r="D8" t="n">
-        <v>9.571294326939849</v>
+        <v>9.573981963903938</v>
       </c>
       <c r="E8" t="n">
-        <v>2.735099761685214e-07</v>
+        <v>2.405843988495242e-07</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9750173809525635</v>
+        <v>0.975125773972421</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2311700729933099</v>
+        <v>0.2311955504582963</v>
       </c>
       <c r="H8" t="n">
-        <v>1.767048677102159</v>
+        <v>1.767078681605536</v>
       </c>
       <c r="I8" t="n">
-        <v>-17.65992174997042</v>
+        <v>-17.66216672320645</v>
       </c>
       <c r="J8" t="n">
-        <v>1.993221624822528</v>
+        <v>1.993008413799791</v>
       </c>
       <c r="K8" t="n">
-        <v>0.005799763107936551</v>
+        <v>0.005805897720301403</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3181835708594122</v>
+        <v>0.3181541541981048</v>
       </c>
     </row>
     <row r="9">
@@ -1310,34 +1310,34 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>2.358464504978087</v>
+        <v>2.358528222537859</v>
       </c>
       <c r="D9" t="n">
-        <v>8.046447333440859</v>
+        <v>8.045657882317329</v>
       </c>
       <c r="E9" t="n">
-        <v>2.311268345842175e-07</v>
+        <v>1.953349088970575e-07</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8221663643244894</v>
+        <v>0.8222578073385765</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1958246840841522</v>
+        <v>0.1958458882845729</v>
       </c>
       <c r="H9" t="n">
-        <v>1.490109860674024</v>
+        <v>1.490135736245885</v>
       </c>
       <c r="I9" t="n">
-        <v>2.103490700124116e-12</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-13.18685228878279</v>
+        <v>-13.18560549176176</v>
       </c>
       <c r="K9" t="n">
-        <v>0.004916933865592343</v>
+        <v>0.004922978007819844</v>
       </c>
       <c r="L9" t="n">
-        <v>0.269039268971189</v>
+        <v>0.2690150393853919</v>
       </c>
     </row>
     <row r="10">
@@ -1348,34 +1348,34 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>2.619501679495463</v>
+        <v>2.619571968047025</v>
       </c>
       <c r="D10" t="n">
-        <v>8.956666782418196</v>
+        <v>8.955806280396361</v>
       </c>
       <c r="E10" t="n">
-        <v>2.567783890752971e-07</v>
+        <v>2.380844229864545e-07</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9102251157387975</v>
+        <v>0.9103251446449143</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2165614732608766</v>
+        <v>0.2165850784168641</v>
       </c>
       <c r="H10" t="n">
-        <v>1.656272090651227</v>
+        <v>1.656301715339834</v>
       </c>
       <c r="I10" t="n">
-        <v>2.344288469703986e-12</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.864269947653264</v>
+        <v>1.864070554094751</v>
       </c>
       <c r="K10" t="n">
-        <v>-16.52182451252052</v>
+        <v>-16.52160702386402</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2984858380852914</v>
+        <v>0.2984574782410987</v>
       </c>
     </row>
     <row r="11">
@@ -1386,34 +1386,34 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>2.374886105652921</v>
+        <v>2.374950489679351</v>
       </c>
       <c r="D11" t="n">
-        <v>8.112889706554441</v>
+        <v>8.112065946971301</v>
       </c>
       <c r="E11" t="n">
-        <v>2.318995793053173e-07</v>
+        <v>2.275161657452674e-07</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8280388307673638</v>
+        <v>0.8281311046925457</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1966250585816618</v>
+        <v>0.1966474409692085</v>
       </c>
       <c r="H11" t="n">
-        <v>1.504115339177353</v>
+        <v>1.504141489354944</v>
       </c>
       <c r="I11" t="n">
-        <v>2.138532529120666e-12</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.69547259012895</v>
+        <v>1.695291434304664</v>
       </c>
       <c r="K11" t="n">
-        <v>0.004953133019688534</v>
+        <v>0.004959052162133005</v>
       </c>
       <c r="L11" t="n">
-        <v>-14.71684115601259</v>
+        <v>-14.71542705553033</v>
       </c>
     </row>
   </sheetData>
